--- a/example/Chapter11_Example.xlsx
+++ b/example/Chapter11_Example.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JHK\Google 드라이브\KHU\Lecture\IE208 응용통계학\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doubleseat/applied_statistics/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3E2DD7-6C14-C849-A6BE-222CD8FF55D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="18320" windowHeight="10310" activeTab="2"/>
+    <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q" sheetId="4" r:id="rId1"/>
     <sheet name="A" sheetId="1" r:id="rId2"/>
     <sheet name="Q2" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>Type 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,12 +220,16 @@
     <t>average</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>거의 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,7 +331,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -432,30 +448,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -478,7 +470,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -554,15 +546,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -576,12 +559,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -630,7 +607,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -656,9 +633,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -690,7 +667,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -758,7 +741,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -831,7 +820,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -899,7 +894,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -972,7 +973,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1010,7 +1017,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1067,7 +1080,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1142,6 +1155,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1177,6 +1207,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1352,27 +1399,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="9.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
     <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10">
       <c r="A1" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="3" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10" ht="18" thickBot="1"/>
+    <row r="3" spans="1:10" ht="18" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1394,9 +1442,12 @@
       <c r="I3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="22"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J3" s="22">
+        <f>AVERAGE(B4:G19)</f>
+        <v>6.0633333333333317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="B4" s="4">
         <v>6.5</v>
       </c>
@@ -1416,7 +1467,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10">
       <c r="B5" s="4">
         <v>5.4</v>
       </c>
@@ -1436,7 +1487,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10">
       <c r="B6" s="4">
         <v>5</v>
       </c>
@@ -1456,7 +1507,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10">
       <c r="B7" s="4">
         <v>5.4</v>
       </c>
@@ -1476,7 +1527,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10">
       <c r="B8" s="4">
         <v>4.3</v>
       </c>
@@ -1496,7 +1547,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10">
       <c r="B9" s="4">
         <v>4.5999999999999996</v>
       </c>
@@ -1516,7 +1567,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10">
       <c r="B10" s="4">
         <v>5.5</v>
       </c>
@@ -1536,7 +1587,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10">
       <c r="B11" s="4">
         <v>4</v>
       </c>
@@ -1556,7 +1607,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10">
       <c r="B12" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -1576,7 +1627,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10">
       <c r="B13" s="4">
         <v>7</v>
       </c>
@@ -1596,7 +1647,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10">
       <c r="B14" s="4">
         <v>3.7</v>
       </c>
@@ -1616,7 +1667,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10">
       <c r="B15" s="4">
         <v>5.9</v>
       </c>
@@ -1636,7 +1687,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10">
       <c r="B16" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -1656,14 +1707,14 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8">
       <c r="B17" s="4">
         <v>5</v>
       </c>
       <c r="C17" s="5">
         <v>5.5</v>
       </c>
-      <c r="D17" s="35"/>
+      <c r="D17" s="30"/>
       <c r="E17" s="5">
         <v>7.6</v>
       </c>
@@ -1674,37 +1725,37 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8">
       <c r="B18" s="4">
         <v>7</v>
       </c>
       <c r="C18" s="5">
         <v>7.9</v>
       </c>
-      <c r="D18" s="35"/>
+      <c r="D18" s="30"/>
       <c r="E18" s="5">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F18" s="35"/>
+      <c r="F18" s="30"/>
       <c r="G18" s="6">
         <v>6.2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8">
       <c r="B19" s="7">
         <v>5.3</v>
       </c>
       <c r="C19" s="8">
         <v>7.3</v>
       </c>
-      <c r="D19" s="36"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="8">
         <v>6.5</v>
       </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="37"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F19" s="31"/>
+      <c r="G19" s="32"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1712,229 +1763,591 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="34"/>
-    </row>
-    <row r="22" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="23" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B21" s="29">
+        <f>AVERAGE(B4:B19)</f>
+        <v>5.2562499999999996</v>
+      </c>
+      <c r="C21" s="29">
+        <f t="shared" ref="C21:G21" si="0">AVERAGE(C4:C19)</f>
+        <v>7.6625000000000005</v>
+      </c>
+      <c r="D21" s="29">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E21" s="29">
+        <f t="shared" si="0"/>
+        <v>6.4124999999999996</v>
+      </c>
+      <c r="F21" s="29">
+        <f t="shared" si="0"/>
+        <v>4.8</v>
+      </c>
+      <c r="G21" s="29">
+        <f t="shared" si="0"/>
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="18" thickBot="1"/>
+    <row r="23" spans="1:8" ht="18" thickBot="1">
       <c r="A23" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="22"/>
-    </row>
-    <row r="24" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="25" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="29">
+        <f>COUNT(B4:B19)</f>
+        <v>16</v>
+      </c>
+      <c r="C23" s="29">
+        <f t="shared" ref="C23:G23" si="1">COUNT(C4:C19)</f>
+        <v>16</v>
+      </c>
+      <c r="D23" s="29">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="E23" s="29">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F23" s="29">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="G23" s="29">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H23" s="22">
+        <f>SUM(B23:G23)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="18" thickBot="1"/>
+    <row r="25" spans="1:8" ht="18" thickBot="1">
       <c r="A25" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="23"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B25" s="29">
+        <f>B23*(B21-$J$3)^2</f>
+        <v>10.422136111111078</v>
+      </c>
+      <c r="C25" s="29">
+        <f t="shared" ref="C25:G25" si="2">C23*(C21-$J$3)^2</f>
+        <v>40.917344444444559</v>
+      </c>
+      <c r="D25" s="29">
+        <f t="shared" si="2"/>
+        <v>12.064144444444413</v>
+      </c>
+      <c r="E25" s="29">
+        <f t="shared" si="2"/>
+        <v>1.9506777777777922</v>
+      </c>
+      <c r="F25" s="29">
+        <f t="shared" si="2"/>
+        <v>22.344155555555506</v>
+      </c>
+      <c r="G25" s="29">
+        <f t="shared" si="2"/>
+        <v>9.5201666666667126</v>
+      </c>
+      <c r="H25" s="23">
+        <f>SUM(B25:G25)</f>
+        <v>97.21862500000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B28" s="27"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="29"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B29" s="27"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="29"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B30" s="27"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="29"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="29"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B32" s="27"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="29"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B33" s="27"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="29"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B34" s="27"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="29"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="29"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B36" s="27"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="29"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B37" s="27"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="29"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B38" s="27"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="29"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B39" s="27"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="29"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B40" s="27"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="29"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B41" s="27"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="29"/>
-    </row>
-    <row r="42" spans="2:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B42" s="27"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="31"/>
-    </row>
-    <row r="43" spans="2:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B43" s="23"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B27" s="24">
+        <f>(B4-B$21)^2</f>
+        <v>1.5469140625000009</v>
+      </c>
+      <c r="C27" s="24">
+        <f t="shared" ref="C27:G27" si="3">(C4-C$21)^2</f>
+        <v>4.5689062500000004</v>
+      </c>
+      <c r="D27" s="24">
+        <f t="shared" si="3"/>
+        <v>4.000000000000007E-2</v>
+      </c>
+      <c r="E27" s="24">
+        <f t="shared" si="3"/>
+        <v>1.72265625</v>
+      </c>
+      <c r="F27" s="24">
+        <f t="shared" si="3"/>
+        <v>1.9600000000000011</v>
+      </c>
+      <c r="G27" s="24">
+        <f t="shared" si="3"/>
+        <v>0.31360000000000054</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" s="24">
+        <f t="shared" ref="B28:G28" si="4">(B5-B$21)^2</f>
+        <v>2.0664062500000205E-2</v>
+      </c>
+      <c r="C28" s="24">
+        <f t="shared" si="4"/>
+        <v>3.906250000000111E-3</v>
+      </c>
+      <c r="D28" s="24">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="E28" s="24">
+        <f t="shared" si="4"/>
+        <v>8.2656250000000306E-2</v>
+      </c>
+      <c r="F28" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="24">
+        <f t="shared" si="4"/>
+        <v>0.40959999999999958</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29" s="24">
+        <f t="shared" ref="B29:G29" si="5">(B6-B$21)^2</f>
+        <v>6.5664062499999815E-2</v>
+      </c>
+      <c r="C29" s="24">
+        <f t="shared" si="5"/>
+        <v>0.43890625000000072</v>
+      </c>
+      <c r="D29" s="24">
+        <f t="shared" si="5"/>
+        <v>0.48999999999999899</v>
+      </c>
+      <c r="E29" s="24">
+        <f t="shared" si="5"/>
+        <v>7.6562500000000623E-3</v>
+      </c>
+      <c r="F29" s="24">
+        <f t="shared" si="5"/>
+        <v>0.49000000000000027</v>
+      </c>
+      <c r="G29" s="24">
+        <f t="shared" si="5"/>
+        <v>2.1315999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" s="24">
+        <f t="shared" ref="B30:G30" si="6">(B7-B$21)^2</f>
+        <v>2.0664062500000205E-2</v>
+      </c>
+      <c r="C30" s="24">
+        <f t="shared" si="6"/>
+        <v>1.5314062499999996</v>
+      </c>
+      <c r="D30" s="24">
+        <f t="shared" si="6"/>
+        <v>0.64000000000000112</v>
+      </c>
+      <c r="E30" s="24">
+        <f t="shared" si="6"/>
+        <v>7.6562500000000623E-3</v>
+      </c>
+      <c r="F30" s="24">
+        <f t="shared" si="6"/>
+        <v>8.99999999999999E-2</v>
+      </c>
+      <c r="G30" s="24">
+        <f t="shared" si="6"/>
+        <v>0.1155999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" s="24">
+        <f t="shared" ref="B31:G31" si="7">(B8-B$21)^2</f>
+        <v>0.91441406249999968</v>
+      </c>
+      <c r="C31" s="24">
+        <f t="shared" si="7"/>
+        <v>0.58140625000000024</v>
+      </c>
+      <c r="D31" s="24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="24">
+        <f t="shared" si="7"/>
+        <v>3.5626562500000039</v>
+      </c>
+      <c r="F31" s="24">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000106E-2</v>
+      </c>
+      <c r="G31" s="24">
+        <f t="shared" si="7"/>
+        <v>2.1315999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32" s="24">
+        <f t="shared" ref="B32:G32" si="8">(B9-B$21)^2</f>
+        <v>0.4306640625</v>
+      </c>
+      <c r="C32" s="24">
+        <f t="shared" si="8"/>
+        <v>1.4062499999999733E-3</v>
+      </c>
+      <c r="D32" s="24">
+        <f t="shared" si="8"/>
+        <v>0.49000000000000027</v>
+      </c>
+      <c r="E32" s="24">
+        <f t="shared" si="8"/>
+        <v>2.2876562499999977</v>
+      </c>
+      <c r="F32" s="24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="24">
+        <f t="shared" si="8"/>
+        <v>1.0816000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="24">
+        <f t="shared" ref="B33:G33" si="9">(B10-B$21)^2</f>
+        <v>5.941406250000017E-2</v>
+      </c>
+      <c r="C33" s="24">
+        <f t="shared" si="9"/>
+        <v>0.58140625000000024</v>
+      </c>
+      <c r="D33" s="24">
+        <f t="shared" si="9"/>
+        <v>0.16000000000000028</v>
+      </c>
+      <c r="E33" s="24">
+        <f t="shared" si="9"/>
+        <v>0.1701562499999997</v>
+      </c>
+      <c r="F33" s="24">
+        <f t="shared" si="9"/>
+        <v>0.80999999999999983</v>
+      </c>
+      <c r="G33" s="24">
+        <f t="shared" si="9"/>
+        <v>1.5876000000000017</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="24">
+        <f t="shared" ref="B34:G34" si="10">(B11-B$21)^2</f>
+        <v>1.5781640624999991</v>
+      </c>
+      <c r="C34" s="24">
+        <f t="shared" si="10"/>
+        <v>0.40640625000000025</v>
+      </c>
+      <c r="D34" s="24">
+        <f t="shared" si="10"/>
+        <v>1.0000000000000106E-2</v>
+      </c>
+      <c r="E34" s="24">
+        <f t="shared" si="10"/>
+        <v>0.83265624999999932</v>
+      </c>
+      <c r="F34" s="24">
+        <f t="shared" si="10"/>
+        <v>9.9999999999999291E-3</v>
+      </c>
+      <c r="G34" s="24">
+        <f t="shared" si="10"/>
+        <v>0.12960000000000024</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="24">
+        <f t="shared" ref="B35:G35" si="11">(B12-B$21)^2</f>
+        <v>2.44140625E-2</v>
+      </c>
+      <c r="C35" s="24">
+        <f t="shared" si="11"/>
+        <v>1.856406250000002</v>
+      </c>
+      <c r="D35" s="24">
+        <f t="shared" si="11"/>
+        <v>0.3599999999999996</v>
+      </c>
+      <c r="E35" s="24">
+        <f t="shared" si="11"/>
+        <v>2.9326562499999982</v>
+      </c>
+      <c r="F35" s="24">
+        <f t="shared" si="11"/>
+        <v>0.15999999999999959</v>
+      </c>
+      <c r="G35" s="24">
+        <f t="shared" si="11"/>
+        <v>0.577600000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="24">
+        <f t="shared" ref="B36:G36" si="12">(B13-B$21)^2</f>
+        <v>3.0406640625000012</v>
+      </c>
+      <c r="C36" s="24">
+        <f t="shared" si="12"/>
+        <v>4.1514062499999946</v>
+      </c>
+      <c r="D36" s="24">
+        <f t="shared" si="12"/>
+        <v>1.9600000000000011</v>
+      </c>
+      <c r="E36" s="24">
+        <f t="shared" si="12"/>
+        <v>8.2656250000000306E-2</v>
+      </c>
+      <c r="F36" s="24">
+        <f t="shared" si="12"/>
+        <v>0.16000000000000028</v>
+      </c>
+      <c r="G36" s="24">
+        <f t="shared" si="12"/>
+        <v>5.4755999999999956</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="24">
+        <f t="shared" ref="B37:G37" si="13">(B14-B$21)^2</f>
+        <v>2.4219140624999982</v>
+      </c>
+      <c r="C37" s="24">
+        <f t="shared" si="13"/>
+        <v>5.6406249999999915E-2</v>
+      </c>
+      <c r="D37" s="24">
+        <f t="shared" si="13"/>
+        <v>0.15999999999999959</v>
+      </c>
+      <c r="E37" s="24">
+        <f t="shared" si="13"/>
+        <v>0.83265624999999932</v>
+      </c>
+      <c r="F37" s="24">
+        <f t="shared" si="13"/>
+        <v>0.3599999999999996</v>
+      </c>
+      <c r="G37" s="24">
+        <f t="shared" si="13"/>
+        <v>2.5600000000000046E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="24">
+        <f t="shared" ref="B38:G38" si="14">(B15-B$21)^2</f>
+        <v>0.4144140625000009</v>
+      </c>
+      <c r="C38" s="24">
+        <f t="shared" si="14"/>
+        <v>0.11390624999999964</v>
+      </c>
+      <c r="D38" s="24">
+        <f t="shared" si="14"/>
+        <v>3.9999999999999716E-2</v>
+      </c>
+      <c r="E38" s="24">
+        <f t="shared" si="14"/>
+        <v>1.1826562500000009</v>
+      </c>
+      <c r="F38" s="24">
+        <f t="shared" si="14"/>
+        <v>8.99999999999999E-2</v>
+      </c>
+      <c r="G38" s="24">
+        <f t="shared" si="14"/>
+        <v>0.88359999999999905</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="24">
+        <f t="shared" ref="B39:G39" si="15">(B16-B$21)^2</f>
+        <v>0.73316406249999877</v>
+      </c>
+      <c r="C39" s="24">
+        <f t="shared" si="15"/>
+        <v>0.58140625000000024</v>
+      </c>
+      <c r="D39" s="24">
+        <f t="shared" si="15"/>
+        <v>1.4399999999999993</v>
+      </c>
+      <c r="E39" s="24">
+        <f t="shared" si="15"/>
+        <v>0.3751562499999998</v>
+      </c>
+      <c r="F39" s="24">
+        <f t="shared" si="15"/>
+        <v>0.36000000000000065</v>
+      </c>
+      <c r="G39" s="24">
+        <f t="shared" si="15"/>
+        <v>2.0736000000000012</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="24">
+        <f t="shared" ref="B40:G40" si="16">(B17-B$21)^2</f>
+        <v>6.5664062499999815E-2</v>
+      </c>
+      <c r="C40" s="24">
+        <f t="shared" si="16"/>
+        <v>4.6764062500000021</v>
+      </c>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24">
+        <f t="shared" si="16"/>
+        <v>1.41015625</v>
+      </c>
+      <c r="F40" s="24">
+        <f t="shared" si="16"/>
+        <v>1.4399999999999993</v>
+      </c>
+      <c r="G40" s="24">
+        <f t="shared" si="16"/>
+        <v>3.6000000000000597E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="24">
+        <f t="shared" ref="B41:G41" si="17">(B18-B$21)^2</f>
+        <v>3.0406640625000012</v>
+      </c>
+      <c r="C41" s="24">
+        <f t="shared" si="17"/>
+        <v>5.6406249999999915E-2</v>
+      </c>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24">
+        <f t="shared" si="17"/>
+        <v>5.7001562500000054</v>
+      </c>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24">
+        <f t="shared" si="17"/>
+        <v>0.43560000000000021</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="18" thickBot="1">
+      <c r="B42" s="24">
+        <f t="shared" ref="B42:G42" si="18">(B19-B$21)^2</f>
+        <v>1.9140625000000156E-3</v>
+      </c>
+      <c r="C42" s="24">
+        <f t="shared" si="18"/>
+        <v>0.1314062500000005</v>
+      </c>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24">
+        <f t="shared" si="18"/>
+        <v>7.6562500000000623E-3</v>
+      </c>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+    </row>
+    <row r="43" spans="2:7" ht="18" thickBot="1">
+      <c r="B43" s="23">
+        <f>SUM(B27:G42)</f>
+        <v>84.670375000000007</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
       <c r="B46" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B48" s="40"/>
-      <c r="C48" s="43" t="s">
+    <row r="48" spans="2:7">
+      <c r="B48" s="35"/>
+      <c r="C48" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="43" t="s">
+      <c r="D48" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E48" s="43" t="s">
+      <c r="E48" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="F48" s="43" t="s">
+      <c r="F48" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G48" s="44" t="s">
+      <c r="G48" s="39" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B49" s="41" t="s">
+    <row r="49" spans="2:8">
+      <c r="B49" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="29"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B50" s="41" t="s">
+      <c r="C49" s="25">
+        <v>5</v>
+      </c>
+      <c r="D49" s="25">
+        <f>H25</f>
+        <v>97.21862500000006</v>
+      </c>
+      <c r="E49" s="25">
+        <f>D49/C49</f>
+        <v>19.443725000000011</v>
+      </c>
+      <c r="F49" s="25">
+        <f>E49/E50</f>
+        <v>19.289779925977662</v>
+      </c>
+      <c r="G49" s="26">
+        <f>_xlfn.F.DIST.RT(F49, C49,C50)</f>
+        <v>9.7322856578757892E-13</v>
+      </c>
+      <c r="H49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="29"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B51" s="42" t="s">
+      <c r="C50" s="25">
+        <f>90-6</f>
+        <v>84</v>
+      </c>
+      <c r="D50" s="25">
+        <f>B43</f>
+        <v>84.670375000000007</v>
+      </c>
+      <c r="E50" s="25">
+        <f>D50/C50</f>
+        <v>1.0079806547619048</v>
+      </c>
+      <c r="F50" s="25"/>
+      <c r="G50" s="26"/>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="31"/>
+      <c r="C51" s="27">
+        <f>C49+C50</f>
+        <v>89</v>
+      </c>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1944,25 +2357,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
     <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10">
       <c r="A1" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1989,7 +2402,7 @@
         <v>6.0633333333333317</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10">
       <c r="B4" s="4">
         <v>6.5</v>
       </c>
@@ -2009,7 +2422,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10">
       <c r="B5" s="4">
         <v>5.4</v>
       </c>
@@ -2029,7 +2442,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10">
       <c r="B6" s="4">
         <v>5</v>
       </c>
@@ -2049,7 +2462,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10">
       <c r="B7" s="4">
         <v>5.4</v>
       </c>
@@ -2069,7 +2482,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10">
       <c r="B8" s="4">
         <v>4.3</v>
       </c>
@@ -2089,7 +2502,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10">
       <c r="B9" s="4">
         <v>4.5999999999999996</v>
       </c>
@@ -2109,7 +2522,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10">
       <c r="B10" s="4">
         <v>5.5</v>
       </c>
@@ -2129,7 +2542,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10">
       <c r="B11" s="4">
         <v>4</v>
       </c>
@@ -2149,7 +2562,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10">
       <c r="B12" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -2169,7 +2582,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10">
       <c r="B13" s="4">
         <v>7</v>
       </c>
@@ -2189,7 +2602,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10">
       <c r="B14" s="4">
         <v>3.7</v>
       </c>
@@ -2209,7 +2622,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10">
       <c r="B15" s="4">
         <v>5.9</v>
       </c>
@@ -2229,7 +2642,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10">
       <c r="B16" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -2249,7 +2662,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15">
       <c r="B17" s="4">
         <v>5</v>
       </c>
@@ -2267,7 +2680,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15">
       <c r="B18" s="4">
         <v>7</v>
       </c>
@@ -2283,7 +2696,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15">
       <c r="B19" s="7">
         <v>5.3</v>
       </c>
@@ -2297,7 +2710,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -2326,7 +2739,7 @@
         <v>6.86</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -2354,12 +2767,12 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="H22" s="38">
+      <c r="H22" s="33">
         <f>SUM(B22:G22)</f>
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15">
       <c r="A24" s="11" t="s">
         <v>7</v>
       </c>
@@ -2392,7 +2805,7 @@
         <v>97.21862500000006</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15">
       <c r="A26" s="11" t="s">
         <v>9</v>
       </c>
@@ -2425,7 +2838,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15">
       <c r="B27" s="4">
         <f t="shared" ref="B27:G41" si="5">(B5-B$20)^2</f>
         <v>2.0664062500000205E-2</v>
@@ -2455,7 +2868,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15">
       <c r="B28" s="4">
         <f t="shared" si="5"/>
         <v>6.5664062499999815E-2</v>
@@ -2485,7 +2898,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15">
       <c r="B29" s="4">
         <f t="shared" si="5"/>
         <v>2.0664062500000205E-2</v>
@@ -2515,7 +2928,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15">
       <c r="B30" s="4">
         <f t="shared" si="5"/>
         <v>0.91441406249999968</v>
@@ -2545,7 +2958,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15">
       <c r="B31" s="4">
         <f t="shared" si="5"/>
         <v>0.4306640625</v>
@@ -2575,7 +2988,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15">
       <c r="B32" s="4">
         <f t="shared" si="5"/>
         <v>5.941406250000017E-2</v>
@@ -2605,7 +3018,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:15">
       <c r="B33" s="4">
         <f t="shared" si="5"/>
         <v>1.5781640624999991</v>
@@ -2635,7 +3048,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:15">
       <c r="B34" s="4">
         <f t="shared" si="5"/>
         <v>2.44140625E-2</v>
@@ -2665,7 +3078,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:15">
       <c r="B35" s="4">
         <f t="shared" si="5"/>
         <v>3.0406640625000012</v>
@@ -2695,7 +3108,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:15">
       <c r="B36" s="4">
         <f t="shared" si="5"/>
         <v>2.4219140624999982</v>
@@ -2725,7 +3138,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:15">
       <c r="B37" s="4">
         <f t="shared" si="5"/>
         <v>0.4144140625000009</v>
@@ -2755,7 +3168,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:15">
       <c r="B38" s="4">
         <f t="shared" si="5"/>
         <v>0.73316406249999877</v>
@@ -2785,7 +3198,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:15">
       <c r="B39" s="4">
         <f t="shared" si="5"/>
         <v>6.5664062499999815E-2</v>
@@ -2794,7 +3207,7 @@
         <f t="shared" si="5"/>
         <v>4.6764062500000021</v>
       </c>
-      <c r="D39" s="39"/>
+      <c r="D39" s="34"/>
       <c r="E39" s="5">
         <f t="shared" si="5"/>
         <v>1.41015625</v>
@@ -2812,7 +3225,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:15">
       <c r="B40" s="4">
         <f t="shared" si="5"/>
         <v>3.0406640625000012</v>
@@ -2836,7 +3249,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:15">
       <c r="B41" s="7">
         <f t="shared" si="5"/>
         <v>1.9140625000000156E-3</v>
@@ -2857,18 +3270,18 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:15">
       <c r="B42" s="15">
         <f>SUM(B26:G41)</f>
         <v>84.670375000000007</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:15">
       <c r="B45" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:15">
       <c r="B47" s="17"/>
       <c r="C47" s="18" t="s">
         <v>14</v>
@@ -2886,7 +3299,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:15">
       <c r="B48" s="20" t="s">
         <v>11</v>
       </c>
@@ -2914,7 +3327,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:7">
       <c r="B49" s="20" t="s">
         <v>12</v>
       </c>
@@ -2933,7 +3346,7 @@
       <c r="F49" s="5"/>
       <c r="G49" s="6"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:7">
       <c r="B50" s="21" t="s">
         <v>13</v>
       </c>
@@ -2957,478 +3370,478 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="111" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="11.75" style="45" customWidth="1"/>
-    <col min="2" max="14" width="8.6640625" style="45"/>
-    <col min="15" max="17" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.6640625" style="45"/>
+    <col min="1" max="1" width="11.6640625" style="40" customWidth="1"/>
+    <col min="2" max="14" width="8.6640625" style="40"/>
+    <col min="15" max="17" width="0" style="40" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.6640625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="61" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="B3" s="46" t="s">
+    <row r="3" spans="1:17">
+      <c r="B3" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="B4" s="49">
+    <row r="4" spans="1:17">
+      <c r="B4" s="44">
         <v>5</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="45">
         <v>6</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="46">
         <v>4</v>
       </c>
-      <c r="O4" s="45">
+      <c r="O4" s="40">
         <f>B4^2</f>
         <v>25</v>
       </c>
-      <c r="P4" s="45">
+      <c r="P4" s="40">
         <f t="shared" ref="P4:Q8" si="0">C4^2</f>
         <v>36</v>
       </c>
-      <c r="Q4" s="45">
+      <c r="Q4" s="40">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="B5" s="49">
+    <row r="5" spans="1:17">
+      <c r="B5" s="44">
         <v>6</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="45">
         <v>5</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="46">
         <v>3</v>
       </c>
-      <c r="O5" s="45">
+      <c r="O5" s="40">
         <f t="shared" ref="O5:O8" si="1">B5^2</f>
         <v>36</v>
       </c>
-      <c r="P5" s="45">
+      <c r="P5" s="40">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="Q5" s="45">
+      <c r="Q5" s="40">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="B6" s="49">
+    <row r="6" spans="1:17">
+      <c r="B6" s="44">
         <v>6</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="45">
         <v>4</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="46">
         <v>3</v>
       </c>
-      <c r="O6" s="45">
+      <c r="O6" s="40">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="P6" s="45">
+      <c r="P6" s="40">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="Q6" s="45">
+      <c r="Q6" s="40">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="B7" s="49">
+    <row r="7" spans="1:17">
+      <c r="B7" s="44">
         <v>5</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="45">
         <v>7</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="46">
         <v>3</v>
       </c>
-      <c r="O7" s="45">
+      <c r="O7" s="40">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="P7" s="45">
+      <c r="P7" s="40">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="Q7" s="45">
+      <c r="Q7" s="40">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="B8" s="52">
+    <row r="8" spans="1:17">
+      <c r="B8" s="47">
         <v>4</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="48">
         <v>4</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="49">
         <v>4</v>
       </c>
-      <c r="O8" s="45">
+      <c r="O8" s="40">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="P8" s="45">
+      <c r="P8" s="40">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="Q8" s="45">
+      <c r="Q8" s="40">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="Q9" s="45">
+    <row r="9" spans="1:17">
+      <c r="Q9" s="40">
         <f>SUM(O4:Q8)</f>
         <v>339</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A10" s="45" t="s">
+    <row r="10" spans="1:17">
+      <c r="A10" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="55">
+      <c r="B10" s="50">
         <f>AVERAGE(B4:D8)</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="Q10" s="45">
+      <c r="Q10" s="40">
         <f>Q9-15*4.6^2</f>
         <v>21.600000000000023</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A11" s="45" t="s">
+    <row r="11" spans="1:17">
+      <c r="A11" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="55">
+      <c r="B11" s="50">
         <f>AVERAGE(B4:B8)</f>
         <v>5.2</v>
       </c>
-      <c r="C11" s="55">
+      <c r="C11" s="50">
         <f>AVERAGE(C4:C8)</f>
         <v>5.2</v>
       </c>
-      <c r="D11" s="55">
+      <c r="D11" s="50">
         <f>AVERAGE(D4:D8)</f>
         <v>3.4</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A12" s="45" t="s">
+    <row r="12" spans="1:17">
+      <c r="A12" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="55">
+      <c r="B12" s="50">
         <f>COUNT(B4:B8)</f>
         <v>5</v>
       </c>
-      <c r="C12" s="55">
+      <c r="C12" s="50">
         <f>COUNT(C4:C8)</f>
         <v>5</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12" s="50">
         <f>COUNT(D4:D8)</f>
         <v>5</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="40">
         <f>SUM(B12:D12)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A14" s="45" t="s">
+    <row r="14" spans="1:17">
+      <c r="A14" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="55">
+      <c r="B14" s="50">
         <f>B12*(B11-$B$10)^2</f>
         <v>1.8000000000000034</v>
       </c>
-      <c r="C14" s="55">
+      <c r="C14" s="50">
         <f>C12*(C11-$B$10)^2</f>
         <v>1.8000000000000034</v>
       </c>
-      <c r="D14" s="55">
+      <c r="D14" s="50">
         <f>D12*(D11-$B$10)^2</f>
         <v>7.1999999999999966</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="40">
         <f>SUM(B14:D14)</f>
         <v>10.800000000000004</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="40">
         <f>(5*5.2^2+5*5.2^2+5*3.4^2)-15*4.6^2</f>
         <v>10.800000000000068</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A16" s="45" t="s">
+    <row r="16" spans="1:17">
+      <c r="A16" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="55">
+      <c r="B16" s="50">
         <f>(B4-B$11)^2</f>
         <v>4.000000000000007E-2</v>
       </c>
-      <c r="C16" s="55">
+      <c r="C16" s="50">
         <f t="shared" ref="C16:D16" si="2">(C4-C$11)^2</f>
         <v>0.63999999999999968</v>
       </c>
-      <c r="D16" s="55">
+      <c r="D16" s="50">
         <f t="shared" si="2"/>
         <v>0.3600000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B17" s="55">
+    <row r="17" spans="1:7">
+      <c r="B17" s="50">
         <f t="shared" ref="B17:D20" si="3">(B5-B$11)^2</f>
         <v>0.63999999999999968</v>
       </c>
-      <c r="C17" s="55">
+      <c r="C17" s="50">
         <f t="shared" si="3"/>
         <v>4.000000000000007E-2</v>
       </c>
-      <c r="D17" s="55">
+      <c r="D17" s="50">
         <f t="shared" si="3"/>
         <v>0.15999999999999992</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B18" s="55">
+    <row r="18" spans="1:7">
+      <c r="B18" s="50">
         <f t="shared" si="3"/>
         <v>0.63999999999999968</v>
       </c>
-      <c r="C18" s="55">
+      <c r="C18" s="50">
         <f t="shared" si="3"/>
         <v>1.4400000000000004</v>
       </c>
-      <c r="D18" s="55">
+      <c r="D18" s="50">
         <f t="shared" si="3"/>
         <v>0.15999999999999992</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B19" s="55">
+    <row r="19" spans="1:7">
+      <c r="B19" s="50">
         <f t="shared" si="3"/>
         <v>4.000000000000007E-2</v>
       </c>
-      <c r="C19" s="55">
+      <c r="C19" s="50">
         <f t="shared" si="3"/>
         <v>3.2399999999999993</v>
       </c>
-      <c r="D19" s="55">
+      <c r="D19" s="50">
         <f t="shared" si="3"/>
         <v>0.15999999999999992</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B20" s="55">
+    <row r="20" spans="1:7">
+      <c r="B20" s="50">
         <f t="shared" si="3"/>
         <v>1.4400000000000004</v>
       </c>
-      <c r="C20" s="55">
+      <c r="C20" s="50">
         <f t="shared" si="3"/>
         <v>1.4400000000000004</v>
       </c>
-      <c r="D20" s="55">
+      <c r="D20" s="50">
         <f t="shared" si="3"/>
         <v>0.3600000000000001</v>
       </c>
-      <c r="E20" s="45">
+      <c r="E20" s="40">
         <f>SUM(B16:D20)</f>
         <v>10.8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="45" t="s">
+    <row r="22" spans="1:7">
+      <c r="A22" s="40" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="56"/>
-      <c r="B23" s="57" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" s="51"/>
+      <c r="B23" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="D23" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="57" t="s">
+      <c r="E23" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="58" t="s">
+      <c r="F23" s="53" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="59" t="s">
+    <row r="24" spans="1:7">
+      <c r="A24" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="55">
+      <c r="B24" s="50">
         <f>3-1</f>
         <v>2</v>
       </c>
-      <c r="C24" s="55">
+      <c r="C24" s="50">
         <f>E14</f>
         <v>10.800000000000004</v>
       </c>
-      <c r="D24" s="55">
+      <c r="D24" s="50">
         <f>C24/B24</f>
         <v>5.4000000000000021</v>
       </c>
-      <c r="E24" s="55">
+      <c r="E24" s="50">
         <f>D24/D25</f>
         <v>6.0000000000000018</v>
       </c>
-      <c r="F24" s="55">
+      <c r="F24" s="50">
         <f>_xlfn.F.DIST.RT(E24,B24,B25)</f>
         <v>1.5625000000000007E-2</v>
       </c>
-      <c r="G24" s="65" t="s">
+      <c r="G24" s="60" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="59" t="s">
+    <row r="25" spans="1:7">
+      <c r="A25" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="55">
+      <c r="B25" s="50">
         <f>E12-3</f>
         <v>12</v>
       </c>
-      <c r="C25" s="55">
+      <c r="C25" s="50">
         <f>E20</f>
         <v>10.8</v>
       </c>
-      <c r="D25" s="55">
+      <c r="D25" s="50">
         <f>C25/B25</f>
         <v>0.9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="60" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="55">
+      <c r="B26" s="50">
         <f>B25+B24</f>
         <v>14</v>
       </c>
-      <c r="C26" s="55">
+      <c r="C26" s="50">
         <f>C25+C24</f>
         <v>21.600000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="61" t="s">
+    <row r="29" spans="1:7">
+      <c r="A29" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="45" t="s">
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="55">
+      <c r="B31" s="50">
         <v>0.05</v>
       </c>
-      <c r="D31" s="45" t="s">
+      <c r="D31" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="55">
+      <c r="E31" s="50">
         <f>B11-C11-B32/SQRT(2)*B33*SQRT(1/B12+1/C12)</f>
         <v>-1.5994755390439701</v>
       </c>
-      <c r="F31" s="55">
+      <c r="F31" s="50">
         <f>B11-C11+B32/SQRT(2)*B33*SQRT(1/B12+1/C12)</f>
         <v>1.5994755390439701</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="45" t="s">
+    <row r="32" spans="1:7">
+      <c r="A32" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="55">
+      <c r="B32" s="50">
         <v>3.77</v>
       </c>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="55">
+      <c r="E32" s="50">
         <f>B11-D11-B32/SQRT(2)*B33*SQRT(1/B12+1/D12)</f>
         <v>0.20052446095603016</v>
       </c>
-      <c r="F32" s="55">
+      <c r="F32" s="50">
         <f>B11-D11+B32/SQRT(2)*B33*SQRT(1/B12+1/D12)</f>
         <v>3.3994755390439702</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" s="45" t="s">
+    <row r="33" spans="1:6">
+      <c r="A33" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="55">
+      <c r="B33" s="50">
         <f>SQRT(D25)</f>
         <v>0.94868329805051377</v>
       </c>
-      <c r="D33" s="45" t="s">
+      <c r="D33" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="55">
+      <c r="E33" s="50">
         <f>C11-D11-B32/SQRT(2)*B33*SQRT(1/C12+1/D12)</f>
         <v>0.20052446095603016</v>
       </c>
-      <c r="F33" s="55">
+      <c r="F33" s="50">
         <f>C11-D11+B32/SQRT(2)*B33*SQRT(1/C12+1/D12)</f>
         <v>3.3994755390439702</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B36" s="63"/>
-      <c r="D36" s="63"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B37" s="64" t="s">
+    <row r="36" spans="1:6">
+      <c r="B36" s="58"/>
+      <c r="D36" s="58"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="B37" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64" t="s">
+      <c r="C37" s="59"/>
+      <c r="D37" s="59" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="D38" s="45" t="s">
+    <row r="38" spans="1:6">
+      <c r="D38" s="40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B39" s="45" t="s">
+    <row r="39" spans="1:6">
+      <c r="B39" s="40" t="s">
         <v>40</v>
       </c>
     </row>

--- a/example/Chapter11_Example.xlsx
+++ b/example/Chapter11_Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doubleseat/applied_statistics/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3E2DD7-6C14-C849-A6BE-222CD8FF55D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F330B8-CAD8-854E-BFE0-74521ACAC4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16920" yWindow="500" windowWidth="16660" windowHeight="19640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q" sheetId="4" r:id="rId1"/>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t>mu1-mu3</t>
-  </si>
-  <si>
-    <t>sigma</t>
   </si>
   <si>
     <t>mu2-mu3</t>
@@ -222,6 +219,10 @@
   </si>
   <si>
     <t>거의 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1402,7 +1403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="125" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -1416,7 +1417,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" thickBot="1"/>
@@ -2246,7 +2247,7 @@
     </row>
     <row r="42" spans="2:7" ht="18" thickBot="1">
       <c r="B42" s="24">
-        <f t="shared" ref="B42:G42" si="18">(B19-B$21)^2</f>
+        <f t="shared" ref="B42:E42" si="18">(B19-B$21)^2</f>
         <v>1.9140625000000156E-3</v>
       </c>
       <c r="C42" s="24">
@@ -2314,7 +2315,7 @@
         <v>9.7322856578757892E-13</v>
       </c>
       <c r="H49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="2:8">
@@ -2372,7 +2373,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2712,7 +2713,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <f>AVERAGE(B4:B19)</f>
@@ -3373,8 +3374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="111" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="135" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
@@ -3387,7 +3388,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3723,7 +3724,7 @@
         <v>1.5625000000000007E-2</v>
       </c>
       <c r="G24" s="60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3804,14 +3805,14 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="40" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B33" s="50">
         <f>SQRT(D25)</f>
         <v>0.94868329805051377</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" s="50">
         <f>C11-D11-B32/SQRT(2)*B33*SQRT(1/C12+1/D12)</f>
@@ -3828,21 +3829,21 @@
     </row>
     <row r="37" spans="1:6">
       <c r="B37" s="59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="59"/>
       <c r="D37" s="59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="D38" s="40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="B39" s="40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/example/Chapter11_Example.xlsx
+++ b/example/Chapter11_Example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doubleseat/applied_statistics/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\is910\Desktop\applied_statistics\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F330B8-CAD8-854E-BFE0-74521ACAC4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D987C10-38A2-4C77-9C88-12C7C90132A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16920" yWindow="500" windowWidth="16660" windowHeight="19640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="23040" windowHeight="12612" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q" sheetId="4" r:id="rId1"/>
@@ -230,7 +230,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,7 +276,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,6 +328,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,7 +477,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -632,11 +638,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1403,25 +1410,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.296875" customWidth="1"/>
+    <col min="5" max="5" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.69921875" customWidth="1"/>
     <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" thickBot="1"/>
-    <row r="3" spans="1:10" ht="18" thickBot="1">
+    <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1448,7 +1455,7 @@
         <v>6.0633333333333317</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B4" s="4">
         <v>6.5</v>
       </c>
@@ -1468,7 +1475,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B5" s="4">
         <v>5.4</v>
       </c>
@@ -1488,7 +1495,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B6" s="4">
         <v>5</v>
       </c>
@@ -1508,7 +1515,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B7" s="4">
         <v>5.4</v>
       </c>
@@ -1528,7 +1535,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B8" s="4">
         <v>4.3</v>
       </c>
@@ -1548,7 +1555,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B9" s="4">
         <v>4.5999999999999996</v>
       </c>
@@ -1568,7 +1575,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B10" s="4">
         <v>5.5</v>
       </c>
@@ -1588,7 +1595,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B11" s="4">
         <v>4</v>
       </c>
@@ -1608,7 +1615,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B12" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -1628,7 +1635,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B13" s="4">
         <v>7</v>
       </c>
@@ -1648,7 +1655,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B14" s="4">
         <v>3.7</v>
       </c>
@@ -1668,7 +1675,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B15" s="4">
         <v>5.9</v>
       </c>
@@ -1688,7 +1695,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B16" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -1708,7 +1715,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B17" s="4">
         <v>5</v>
       </c>
@@ -1726,7 +1733,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B18" s="4">
         <v>7</v>
       </c>
@@ -1742,7 +1749,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B19" s="7">
         <v>5.3</v>
       </c>
@@ -1756,7 +1763,7 @@
       <c r="F19" s="31"/>
       <c r="G19" s="32"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1764,7 +1771,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1793,8 +1800,8 @@
         <v>6.86</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18" thickBot="1"/>
-    <row r="23" spans="1:8" ht="18" thickBot="1">
+    <row r="22" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="23" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1827,8 +1834,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18" thickBot="1"/>
-    <row r="25" spans="1:8" ht="18" thickBot="1">
+    <row r="24" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="25" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="11" t="s">
         <v>7</v>
       </c>
@@ -1861,7 +1868,7 @@
         <v>97.21862500000006</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
         <v>9</v>
       </c>
@@ -1890,7 +1897,7 @@
         <v>0.31360000000000054</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B28" s="24">
         <f t="shared" ref="B28:G28" si="4">(B5-B$21)^2</f>
         <v>2.0664062500000205E-2</v>
@@ -1916,7 +1923,7 @@
         <v>0.40959999999999958</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B29" s="24">
         <f t="shared" ref="B29:G29" si="5">(B6-B$21)^2</f>
         <v>6.5664062499999815E-2</v>
@@ -1942,7 +1949,7 @@
         <v>2.1315999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B30" s="24">
         <f t="shared" ref="B30:G30" si="6">(B7-B$21)^2</f>
         <v>2.0664062500000205E-2</v>
@@ -1968,7 +1975,7 @@
         <v>0.1155999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B31" s="24">
         <f t="shared" ref="B31:G31" si="7">(B8-B$21)^2</f>
         <v>0.91441406249999968</v>
@@ -1994,7 +2001,7 @@
         <v>2.1315999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B32" s="24">
         <f t="shared" ref="B32:G32" si="8">(B9-B$21)^2</f>
         <v>0.4306640625</v>
@@ -2020,7 +2027,7 @@
         <v>1.0816000000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="24">
         <f t="shared" ref="B33:G33" si="9">(B10-B$21)^2</f>
         <v>5.941406250000017E-2</v>
@@ -2046,7 +2053,7 @@
         <v>1.5876000000000017</v>
       </c>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="24">
         <f t="shared" ref="B34:G34" si="10">(B11-B$21)^2</f>
         <v>1.5781640624999991</v>
@@ -2072,7 +2079,7 @@
         <v>0.12960000000000024</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="24">
         <f t="shared" ref="B35:G35" si="11">(B12-B$21)^2</f>
         <v>2.44140625E-2</v>
@@ -2098,7 +2105,7 @@
         <v>0.577600000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="24">
         <f t="shared" ref="B36:G36" si="12">(B13-B$21)^2</f>
         <v>3.0406640625000012</v>
@@ -2124,7 +2131,7 @@
         <v>5.4755999999999956</v>
       </c>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" s="24">
         <f t="shared" ref="B37:G37" si="13">(B14-B$21)^2</f>
         <v>2.4219140624999982</v>
@@ -2150,7 +2157,7 @@
         <v>2.5600000000000046E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="24">
         <f t="shared" ref="B38:G38" si="14">(B15-B$21)^2</f>
         <v>0.4144140625000009</v>
@@ -2176,7 +2183,7 @@
         <v>0.88359999999999905</v>
       </c>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" s="24">
         <f t="shared" ref="B39:G39" si="15">(B16-B$21)^2</f>
         <v>0.73316406249999877</v>
@@ -2202,7 +2209,7 @@
         <v>2.0736000000000012</v>
       </c>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B40" s="24">
         <f t="shared" ref="B40:G40" si="16">(B17-B$21)^2</f>
         <v>6.5664062499999815E-2</v>
@@ -2225,7 +2232,7 @@
         <v>3.6000000000000597E-3</v>
       </c>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41" s="24">
         <f t="shared" ref="B41:G41" si="17">(B18-B$21)^2</f>
         <v>3.0406640625000012</v>
@@ -2245,7 +2252,7 @@
         <v>0.43560000000000021</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="18" thickBot="1">
+    <row r="42" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B42" s="24">
         <f t="shared" ref="B42:E42" si="18">(B19-B$21)^2</f>
         <v>1.9140625000000156E-3</v>
@@ -2262,18 +2269,18 @@
       <c r="F42" s="24"/>
       <c r="G42" s="24"/>
     </row>
-    <row r="43" spans="2:7" ht="18" thickBot="1">
+    <row r="43" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B43" s="23">
         <f>SUM(B27:G42)</f>
         <v>84.670375000000007</v>
       </c>
     </row>
-    <row r="46" spans="2:7">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B46" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="2:7">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B48" s="35"/>
       <c r="C48" s="38" t="s">
         <v>14</v>
@@ -2291,7 +2298,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B49" s="36" t="s">
         <v>11</v>
       </c>
@@ -2318,7 +2325,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B50" s="36" t="s">
         <v>12</v>
       </c>
@@ -2337,7 +2344,7 @@
       <c r="F50" s="25"/>
       <c r="G50" s="26"/>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B51" s="37" t="s">
         <v>13</v>
       </c>
@@ -2361,22 +2368,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.69921875" customWidth="1"/>
     <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2403,7 +2410,7 @@
         <v>6.0633333333333317</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B4" s="4">
         <v>6.5</v>
       </c>
@@ -2423,7 +2430,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B5" s="4">
         <v>5.4</v>
       </c>
@@ -2443,7 +2450,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B6" s="4">
         <v>5</v>
       </c>
@@ -2463,7 +2470,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B7" s="4">
         <v>5.4</v>
       </c>
@@ -2483,7 +2490,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B8" s="4">
         <v>4.3</v>
       </c>
@@ -2503,7 +2510,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B9" s="4">
         <v>4.5999999999999996</v>
       </c>
@@ -2523,7 +2530,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B10" s="4">
         <v>5.5</v>
       </c>
@@ -2543,7 +2550,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B11" s="4">
         <v>4</v>
       </c>
@@ -2563,7 +2570,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B12" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -2583,7 +2590,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B13" s="4">
         <v>7</v>
       </c>
@@ -2603,7 +2610,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B14" s="4">
         <v>3.7</v>
       </c>
@@ -2623,7 +2630,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B15" s="4">
         <v>5.9</v>
       </c>
@@ -2643,7 +2650,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B16" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -2663,7 +2670,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B17" s="4">
         <v>5</v>
       </c>
@@ -2681,7 +2688,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B18" s="4">
         <v>7</v>
       </c>
@@ -2697,7 +2704,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B19" s="7">
         <v>5.3</v>
       </c>
@@ -2711,7 +2718,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -2740,7 +2747,7 @@
         <v>6.86</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -2773,7 +2780,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="11" t="s">
         <v>7</v>
       </c>
@@ -2806,7 +2813,7 @@
         <v>97.21862500000006</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
         <v>9</v>
       </c>
@@ -2839,7 +2846,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B27" s="4">
         <f t="shared" ref="B27:G41" si="5">(B5-B$20)^2</f>
         <v>2.0664062500000205E-2</v>
@@ -2869,7 +2876,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B28" s="4">
         <f t="shared" si="5"/>
         <v>6.5664062499999815E-2</v>
@@ -2899,7 +2906,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B29" s="4">
         <f t="shared" si="5"/>
         <v>2.0664062500000205E-2</v>
@@ -2929,7 +2936,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B30" s="4">
         <f t="shared" si="5"/>
         <v>0.91441406249999968</v>
@@ -2959,7 +2966,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B31" s="4">
         <f t="shared" si="5"/>
         <v>0.4306640625</v>
@@ -2989,7 +2996,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B32" s="4">
         <f t="shared" si="5"/>
         <v>5.941406250000017E-2</v>
@@ -3019,7 +3026,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B33" s="4">
         <f t="shared" si="5"/>
         <v>1.5781640624999991</v>
@@ -3049,7 +3056,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B34" s="4">
         <f t="shared" si="5"/>
         <v>2.44140625E-2</v>
@@ -3079,7 +3086,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B35" s="4">
         <f t="shared" si="5"/>
         <v>3.0406640625000012</v>
@@ -3109,7 +3116,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B36" s="4">
         <f t="shared" si="5"/>
         <v>2.4219140624999982</v>
@@ -3139,7 +3146,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B37" s="4">
         <f t="shared" si="5"/>
         <v>0.4144140625000009</v>
@@ -3169,7 +3176,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B38" s="4">
         <f t="shared" si="5"/>
         <v>0.73316406249999877</v>
@@ -3199,7 +3206,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B39" s="4">
         <f t="shared" si="5"/>
         <v>6.5664062499999815E-2</v>
@@ -3226,7 +3233,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B40" s="4">
         <f t="shared" si="5"/>
         <v>3.0406640625000012</v>
@@ -3250,7 +3257,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B41" s="7">
         <f t="shared" si="5"/>
         <v>1.9140625000000156E-3</v>
@@ -3271,18 +3278,18 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B42" s="15">
         <f>SUM(B26:G41)</f>
         <v>84.670375000000007</v>
       </c>
     </row>
-    <row r="45" spans="2:15">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="2:15">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B47" s="17"/>
       <c r="C47" s="18" t="s">
         <v>14</v>
@@ -3300,7 +3307,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="2:15">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B48" s="20" t="s">
         <v>11</v>
       </c>
@@ -3328,7 +3335,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="2:7">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B49" s="20" t="s">
         <v>12</v>
       </c>
@@ -3347,7 +3354,7 @@
       <c r="F49" s="5"/>
       <c r="G49" s="6"/>
     </row>
-    <row r="50" spans="2:7">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B50" s="21" t="s">
         <v>13</v>
       </c>
@@ -3374,24 +3381,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="135" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="40" customWidth="1"/>
-    <col min="2" max="14" width="8.6640625" style="40"/>
+    <col min="1" max="1" width="11.69921875" style="40" customWidth="1"/>
+    <col min="2" max="14" width="8.69921875" style="40"/>
     <col min="15" max="17" width="0" style="40" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.6640625" style="40"/>
+    <col min="18" max="16384" width="8.69921875" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" s="61" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B3" s="41" t="s">
         <v>21</v>
       </c>
@@ -3402,7 +3409,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B4" s="44">
         <v>5</v>
       </c>
@@ -3425,7 +3432,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B5" s="44">
         <v>6</v>
       </c>
@@ -3448,7 +3455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B6" s="44">
         <v>6</v>
       </c>
@@ -3471,7 +3478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B7" s="44">
         <v>5</v>
       </c>
@@ -3494,7 +3501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B8" s="47">
         <v>4</v>
       </c>
@@ -3517,13 +3524,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="Q9" s="40">
         <f>SUM(O4:Q8)</f>
         <v>339</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="40" t="s">
         <v>24</v>
       </c>
@@ -3536,7 +3543,7 @@
         <v>21.600000000000023</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="40" t="s">
         <v>25</v>
       </c>
@@ -3553,7 +3560,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="40" t="s">
         <v>26</v>
       </c>
@@ -3574,7 +3581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="40" t="s">
         <v>27</v>
       </c>
@@ -3599,7 +3606,7 @@
         <v>10.800000000000068</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="40" t="s">
         <v>28</v>
       </c>
@@ -3616,7 +3623,7 @@
         <v>0.3600000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B17" s="50">
         <f t="shared" ref="B17:D20" si="3">(B5-B$11)^2</f>
         <v>0.63999999999999968</v>
@@ -3630,7 +3637,7 @@
         <v>0.15999999999999992</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B18" s="50">
         <f t="shared" si="3"/>
         <v>0.63999999999999968</v>
@@ -3644,7 +3651,7 @@
         <v>0.15999999999999992</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B19" s="50">
         <f t="shared" si="3"/>
         <v>4.000000000000007E-2</v>
@@ -3658,7 +3665,7 @@
         <v>0.15999999999999992</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B20" s="50">
         <f t="shared" si="3"/>
         <v>1.4400000000000004</v>
@@ -3676,12 +3683,12 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="40" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="51"/>
       <c r="B23" s="52" t="s">
         <v>14</v>
@@ -3699,7 +3706,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="54" t="s">
         <v>11</v>
       </c>
@@ -3727,7 +3734,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="54" t="s">
         <v>12</v>
       </c>
@@ -3744,7 +3751,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="55" t="s">
         <v>13</v>
       </c>
@@ -3757,7 +3764,7 @@
         <v>21.600000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="56" t="s">
         <v>30</v>
       </c>
@@ -3765,7 +3772,7 @@
       <c r="C29" s="57"/>
       <c r="D29" s="57"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="40" t="s">
         <v>31</v>
       </c>
@@ -3784,11 +3791,11 @@
         <v>1.5994755390439701</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="50">
+      <c r="B32" s="62">
         <v>3.77</v>
       </c>
       <c r="D32" s="40" t="s">
@@ -3803,7 +3810,7 @@
         <v>3.3994755390439702</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="40" t="s">
         <v>45</v>
       </c>
@@ -3823,11 +3830,11 @@
         <v>3.3994755390439702</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B36" s="58"/>
       <c r="D36" s="58"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B37" s="59" t="s">
         <v>36</v>
       </c>
@@ -3836,12 +3843,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D38" s="40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B39" s="40" t="s">
         <v>39</v>
       </c>

--- a/example/Chapter11_Example.xlsx
+++ b/example/Chapter11_Example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\is910\Desktop\applied_statistics\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doubleseat/applied_statistics/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D987C10-38A2-4C77-9C88-12C7C90132A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A778170-3978-7147-8C4B-3A15C69ECA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="23040" windowHeight="12612" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="720" windowWidth="20000" windowHeight="18560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q" sheetId="4" r:id="rId1"/>
@@ -230,7 +230,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,9 +641,9 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -816,15 +816,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>712610</xdr:colOff>
+      <xdr:colOff>938388</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>72090</xdr:rowOff>
+      <xdr:rowOff>114423</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>187325</xdr:colOff>
+      <xdr:colOff>413103</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>131824</xdr:rowOff>
+      <xdr:rowOff>174157</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -854,8 +854,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6095999" y="3352923"/>
-          <a:ext cx="5069770" cy="4652901"/>
+          <a:off x="6413499" y="3289423"/>
+          <a:ext cx="5175604" cy="4504734"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1053,6 +1053,168 @@
         <a:xfrm>
           <a:off x="4464049" y="6019800"/>
           <a:ext cx="4822825" cy="601315"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>828728</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>101016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>236780</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>44322</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20368C3E-AC60-EA42-8D3A-B89EB3873E5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="828728" y="9141694"/>
+          <a:ext cx="6866611" cy="5109408"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>204492</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>96864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>98587</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>14035</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1D35E85-D1AE-CE4D-8F7E-1686866DDD84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1097797" y="14734152"/>
+          <a:ext cx="7772400" cy="1423951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>579926</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>199649</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CF263B3-09AF-0E4C-96CE-1442F8D37938}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="893305" y="16574576"/>
+          <a:ext cx="5175604" cy="4504734"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1410,25 +1572,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="9.296875" customWidth="1"/>
-    <col min="5" max="5" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.69921875" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
     <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10">
       <c r="A1" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" ht="18" thickBot="1"/>
+    <row r="3" spans="1:10" ht="18" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1455,7 +1617,7 @@
         <v>6.0633333333333317</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10">
       <c r="B4" s="4">
         <v>6.5</v>
       </c>
@@ -1475,7 +1637,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10">
       <c r="B5" s="4">
         <v>5.4</v>
       </c>
@@ -1495,7 +1657,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10">
       <c r="B6" s="4">
         <v>5</v>
       </c>
@@ -1515,7 +1677,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10">
       <c r="B7" s="4">
         <v>5.4</v>
       </c>
@@ -1535,7 +1697,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10">
       <c r="B8" s="4">
         <v>4.3</v>
       </c>
@@ -1555,7 +1717,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10">
       <c r="B9" s="4">
         <v>4.5999999999999996</v>
       </c>
@@ -1575,7 +1737,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10">
       <c r="B10" s="4">
         <v>5.5</v>
       </c>
@@ -1595,7 +1757,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10">
       <c r="B11" s="4">
         <v>4</v>
       </c>
@@ -1615,7 +1777,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10">
       <c r="B12" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -1635,7 +1797,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10">
       <c r="B13" s="4">
         <v>7</v>
       </c>
@@ -1655,7 +1817,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10">
       <c r="B14" s="4">
         <v>3.7</v>
       </c>
@@ -1675,7 +1837,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10">
       <c r="B15" s="4">
         <v>5.9</v>
       </c>
@@ -1695,7 +1857,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10">
       <c r="B16" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -1715,7 +1877,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8">
       <c r="B17" s="4">
         <v>5</v>
       </c>
@@ -1733,7 +1895,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8">
       <c r="B18" s="4">
         <v>7</v>
       </c>
@@ -1749,7 +1911,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8">
       <c r="B19" s="7">
         <v>5.3</v>
       </c>
@@ -1763,7 +1925,7 @@
       <c r="F19" s="31"/>
       <c r="G19" s="32"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1771,7 +1933,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1800,8 +1962,8 @@
         <v>6.86</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="23" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" ht="18" thickBot="1"/>
+    <row r="23" spans="1:8" ht="18" thickBot="1">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1834,8 +1996,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="25" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" ht="18" thickBot="1"/>
+    <row r="25" spans="1:8" ht="18" thickBot="1">
       <c r="A25" s="11" t="s">
         <v>7</v>
       </c>
@@ -1868,7 +2030,7 @@
         <v>97.21862500000006</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8">
       <c r="A27" s="11" t="s">
         <v>9</v>
       </c>
@@ -1897,7 +2059,7 @@
         <v>0.31360000000000054</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8">
       <c r="B28" s="24">
         <f t="shared" ref="B28:G28" si="4">(B5-B$21)^2</f>
         <v>2.0664062500000205E-2</v>
@@ -1923,7 +2085,7 @@
         <v>0.40959999999999958</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8">
       <c r="B29" s="24">
         <f t="shared" ref="B29:G29" si="5">(B6-B$21)^2</f>
         <v>6.5664062499999815E-2</v>
@@ -1949,7 +2111,7 @@
         <v>2.1315999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8">
       <c r="B30" s="24">
         <f t="shared" ref="B30:G30" si="6">(B7-B$21)^2</f>
         <v>2.0664062500000205E-2</v>
@@ -1975,7 +2137,7 @@
         <v>0.1155999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8">
       <c r="B31" s="24">
         <f t="shared" ref="B31:G31" si="7">(B8-B$21)^2</f>
         <v>0.91441406249999968</v>
@@ -2001,7 +2163,7 @@
         <v>2.1315999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8">
       <c r="B32" s="24">
         <f t="shared" ref="B32:G32" si="8">(B9-B$21)^2</f>
         <v>0.4306640625</v>
@@ -2027,7 +2189,7 @@
         <v>1.0816000000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7">
       <c r="B33" s="24">
         <f t="shared" ref="B33:G33" si="9">(B10-B$21)^2</f>
         <v>5.941406250000017E-2</v>
@@ -2053,7 +2215,7 @@
         <v>1.5876000000000017</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7">
       <c r="B34" s="24">
         <f t="shared" ref="B34:G34" si="10">(B11-B$21)^2</f>
         <v>1.5781640624999991</v>
@@ -2079,7 +2241,7 @@
         <v>0.12960000000000024</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:7">
       <c r="B35" s="24">
         <f t="shared" ref="B35:G35" si="11">(B12-B$21)^2</f>
         <v>2.44140625E-2</v>
@@ -2105,7 +2267,7 @@
         <v>0.577600000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:7">
       <c r="B36" s="24">
         <f t="shared" ref="B36:G36" si="12">(B13-B$21)^2</f>
         <v>3.0406640625000012</v>
@@ -2131,7 +2293,7 @@
         <v>5.4755999999999956</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:7">
       <c r="B37" s="24">
         <f t="shared" ref="B37:G37" si="13">(B14-B$21)^2</f>
         <v>2.4219140624999982</v>
@@ -2157,7 +2319,7 @@
         <v>2.5600000000000046E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:7">
       <c r="B38" s="24">
         <f t="shared" ref="B38:G38" si="14">(B15-B$21)^2</f>
         <v>0.4144140625000009</v>
@@ -2183,7 +2345,7 @@
         <v>0.88359999999999905</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:7">
       <c r="B39" s="24">
         <f t="shared" ref="B39:G39" si="15">(B16-B$21)^2</f>
         <v>0.73316406249999877</v>
@@ -2209,7 +2371,7 @@
         <v>2.0736000000000012</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:7">
       <c r="B40" s="24">
         <f t="shared" ref="B40:G40" si="16">(B17-B$21)^2</f>
         <v>6.5664062499999815E-2</v>
@@ -2232,7 +2394,7 @@
         <v>3.6000000000000597E-3</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:7">
       <c r="B41" s="24">
         <f t="shared" ref="B41:G41" si="17">(B18-B$21)^2</f>
         <v>3.0406640625000012</v>
@@ -2252,7 +2414,7 @@
         <v>0.43560000000000021</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:7" ht="18" thickBot="1">
       <c r="B42" s="24">
         <f t="shared" ref="B42:E42" si="18">(B19-B$21)^2</f>
         <v>1.9140625000000156E-3</v>
@@ -2269,18 +2431,18 @@
       <c r="F42" s="24"/>
       <c r="G42" s="24"/>
     </row>
-    <row r="43" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:7" ht="18" thickBot="1">
       <c r="B43" s="23">
         <f>SUM(B27:G42)</f>
         <v>84.670375000000007</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:7">
       <c r="B46" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:7">
       <c r="B48" s="35"/>
       <c r="C48" s="38" t="s">
         <v>14</v>
@@ -2298,7 +2460,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:8">
       <c r="B49" s="36" t="s">
         <v>11</v>
       </c>
@@ -2325,7 +2487,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:8">
       <c r="B50" s="36" t="s">
         <v>12</v>
       </c>
@@ -2344,7 +2506,7 @@
       <c r="F50" s="25"/>
       <c r="G50" s="26"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:8">
       <c r="B51" s="37" t="s">
         <v>13</v>
       </c>
@@ -2369,21 +2531,21 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="7" max="7" width="9.69921875" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
     <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10">
       <c r="A1" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2410,7 +2572,7 @@
         <v>6.0633333333333317</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10">
       <c r="B4" s="4">
         <v>6.5</v>
       </c>
@@ -2430,7 +2592,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10">
       <c r="B5" s="4">
         <v>5.4</v>
       </c>
@@ -2450,7 +2612,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10">
       <c r="B6" s="4">
         <v>5</v>
       </c>
@@ -2470,7 +2632,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10">
       <c r="B7" s="4">
         <v>5.4</v>
       </c>
@@ -2490,7 +2652,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10">
       <c r="B8" s="4">
         <v>4.3</v>
       </c>
@@ -2510,7 +2672,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10">
       <c r="B9" s="4">
         <v>4.5999999999999996</v>
       </c>
@@ -2530,7 +2692,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10">
       <c r="B10" s="4">
         <v>5.5</v>
       </c>
@@ -2550,7 +2712,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10">
       <c r="B11" s="4">
         <v>4</v>
       </c>
@@ -2570,7 +2732,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10">
       <c r="B12" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -2590,7 +2752,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10">
       <c r="B13" s="4">
         <v>7</v>
       </c>
@@ -2610,7 +2772,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10">
       <c r="B14" s="4">
         <v>3.7</v>
       </c>
@@ -2630,7 +2792,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10">
       <c r="B15" s="4">
         <v>5.9</v>
       </c>
@@ -2650,7 +2812,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10">
       <c r="B16" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -2670,7 +2832,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15">
       <c r="B17" s="4">
         <v>5</v>
       </c>
@@ -2688,7 +2850,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15">
       <c r="B18" s="4">
         <v>7</v>
       </c>
@@ -2704,7 +2866,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15">
       <c r="B19" s="7">
         <v>5.3</v>
       </c>
@@ -2718,7 +2880,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -2747,7 +2909,7 @@
         <v>6.86</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -2780,7 +2942,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15">
       <c r="A24" s="11" t="s">
         <v>7</v>
       </c>
@@ -2813,7 +2975,7 @@
         <v>97.21862500000006</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15">
       <c r="A26" s="11" t="s">
         <v>9</v>
       </c>
@@ -2846,7 +3008,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15">
       <c r="B27" s="4">
         <f t="shared" ref="B27:G41" si="5">(B5-B$20)^2</f>
         <v>2.0664062500000205E-2</v>
@@ -2876,7 +3038,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15">
       <c r="B28" s="4">
         <f t="shared" si="5"/>
         <v>6.5664062499999815E-2</v>
@@ -2906,7 +3068,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15">
       <c r="B29" s="4">
         <f t="shared" si="5"/>
         <v>2.0664062500000205E-2</v>
@@ -2936,7 +3098,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15">
       <c r="B30" s="4">
         <f t="shared" si="5"/>
         <v>0.91441406249999968</v>
@@ -2966,7 +3128,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15">
       <c r="B31" s="4">
         <f t="shared" si="5"/>
         <v>0.4306640625</v>
@@ -2996,7 +3158,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15">
       <c r="B32" s="4">
         <f t="shared" si="5"/>
         <v>5.941406250000017E-2</v>
@@ -3026,7 +3188,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:15">
       <c r="B33" s="4">
         <f t="shared" si="5"/>
         <v>1.5781640624999991</v>
@@ -3056,7 +3218,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:15">
       <c r="B34" s="4">
         <f t="shared" si="5"/>
         <v>2.44140625E-2</v>
@@ -3086,7 +3248,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:15">
       <c r="B35" s="4">
         <f t="shared" si="5"/>
         <v>3.0406640625000012</v>
@@ -3116,7 +3278,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:15">
       <c r="B36" s="4">
         <f t="shared" si="5"/>
         <v>2.4219140624999982</v>
@@ -3146,7 +3308,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:15">
       <c r="B37" s="4">
         <f t="shared" si="5"/>
         <v>0.4144140625000009</v>
@@ -3176,7 +3338,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:15">
       <c r="B38" s="4">
         <f t="shared" si="5"/>
         <v>0.73316406249999877</v>
@@ -3206,7 +3368,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:15">
       <c r="B39" s="4">
         <f t="shared" si="5"/>
         <v>6.5664062499999815E-2</v>
@@ -3233,7 +3395,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:15">
       <c r="B40" s="4">
         <f t="shared" si="5"/>
         <v>3.0406640625000012</v>
@@ -3257,7 +3419,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:15">
       <c r="B41" s="7">
         <f t="shared" si="5"/>
         <v>1.9140625000000156E-3</v>
@@ -3278,18 +3440,18 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:15">
       <c r="B42" s="15">
         <f>SUM(B26:G41)</f>
         <v>84.670375000000007</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:15">
       <c r="B45" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:15">
       <c r="B47" s="17"/>
       <c r="C47" s="18" t="s">
         <v>14</v>
@@ -3307,7 +3469,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:15">
       <c r="B48" s="20" t="s">
         <v>11</v>
       </c>
@@ -3335,7 +3497,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:7">
       <c r="B49" s="20" t="s">
         <v>12</v>
       </c>
@@ -3354,7 +3516,7 @@
       <c r="F49" s="5"/>
       <c r="G49" s="6"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:7">
       <c r="B50" s="21" t="s">
         <v>13</v>
       </c>
@@ -3381,24 +3543,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="118" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="11.69921875" style="40" customWidth="1"/>
-    <col min="2" max="14" width="8.69921875" style="40"/>
+    <col min="1" max="1" width="11.6640625" style="40" customWidth="1"/>
+    <col min="2" max="14" width="8.6640625" style="40"/>
     <col min="15" max="17" width="0" style="40" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.69921875" style="40"/>
+    <col min="18" max="16384" width="8.6640625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17">
       <c r="A1" s="61" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17">
       <c r="B3" s="41" t="s">
         <v>21</v>
       </c>
@@ -3409,7 +3571,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17">
       <c r="B4" s="44">
         <v>5</v>
       </c>
@@ -3432,7 +3594,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17">
       <c r="B5" s="44">
         <v>6</v>
       </c>
@@ -3455,7 +3617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17">
       <c r="B6" s="44">
         <v>6</v>
       </c>
@@ -3478,7 +3640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17">
       <c r="B7" s="44">
         <v>5</v>
       </c>
@@ -3501,7 +3663,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17">
       <c r="B8" s="47">
         <v>4</v>
       </c>
@@ -3524,13 +3686,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17">
       <c r="Q9" s="40">
         <f>SUM(O4:Q8)</f>
         <v>339</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17">
       <c r="A10" s="40" t="s">
         <v>24</v>
       </c>
@@ -3543,7 +3705,7 @@
         <v>21.600000000000023</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17">
       <c r="A11" s="40" t="s">
         <v>25</v>
       </c>
@@ -3560,7 +3722,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17">
       <c r="A12" s="40" t="s">
         <v>26</v>
       </c>
@@ -3581,7 +3743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17">
       <c r="A14" s="40" t="s">
         <v>27</v>
       </c>
@@ -3606,7 +3768,7 @@
         <v>10.800000000000068</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17">
       <c r="A16" s="40" t="s">
         <v>28</v>
       </c>
@@ -3623,7 +3785,7 @@
         <v>0.3600000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7">
       <c r="B17" s="50">
         <f t="shared" ref="B17:D20" si="3">(B5-B$11)^2</f>
         <v>0.63999999999999968</v>
@@ -3637,7 +3799,7 @@
         <v>0.15999999999999992</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7">
       <c r="B18" s="50">
         <f t="shared" si="3"/>
         <v>0.63999999999999968</v>
@@ -3651,7 +3813,7 @@
         <v>0.15999999999999992</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7">
       <c r="B19" s="50">
         <f t="shared" si="3"/>
         <v>4.000000000000007E-2</v>
@@ -3665,7 +3827,7 @@
         <v>0.15999999999999992</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7">
       <c r="B20" s="50">
         <f t="shared" si="3"/>
         <v>1.4400000000000004</v>
@@ -3683,12 +3845,12 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7">
       <c r="A22" s="40" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7">
       <c r="A23" s="51"/>
       <c r="B23" s="52" t="s">
         <v>14</v>
@@ -3706,7 +3868,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7">
       <c r="A24" s="54" t="s">
         <v>11</v>
       </c>
@@ -3734,7 +3896,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7">
       <c r="A25" s="54" t="s">
         <v>12</v>
       </c>
@@ -3751,7 +3913,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7">
       <c r="A26" s="55" t="s">
         <v>13</v>
       </c>
@@ -3764,7 +3926,7 @@
         <v>21.600000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7">
       <c r="A29" s="56" t="s">
         <v>30</v>
       </c>
@@ -3772,7 +3934,7 @@
       <c r="C29" s="57"/>
       <c r="D29" s="57"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7">
       <c r="A31" s="40" t="s">
         <v>31</v>
       </c>
@@ -3791,7 +3953,7 @@
         <v>1.5994755390439701</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7">
       <c r="A32" s="40" t="s">
         <v>33</v>
       </c>
@@ -3810,7 +3972,7 @@
         <v>3.3994755390439702</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6">
       <c r="A33" s="40" t="s">
         <v>45</v>
       </c>
@@ -3830,11 +3992,11 @@
         <v>3.3994755390439702</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6">
       <c r="B36" s="58"/>
       <c r="D36" s="58"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6">
       <c r="B37" s="59" t="s">
         <v>36</v>
       </c>
@@ -3843,12 +4005,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6">
       <c r="D38" s="40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6">
       <c r="B39" s="40" t="s">
         <v>39</v>
       </c>
